--- a/tests/data/input_errors_in_metadata.xlsx
+++ b/tests/data/input_errors_in_metadata.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsteinmann/git_private/handprofil/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B331A-EF7B-C84A-8516-E5A0896E77B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4B4D5B-808F-5C4C-B02F-1E72ADBF6EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="33340" xr2:uid="{8291EEF5-42C0-F349-9D05-6B17BB5725D8}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="30080" windowHeight="33340" xr2:uid="{8291EEF5-42C0-F349-9D05-6B17BB5725D8}"/>
   </bookViews>
   <sheets>
     <sheet name="measurements" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="123">
   <si>
     <t>mm</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>Zieharmonika</t>
+  </si>
+  <si>
+    <t>10.1.1893</t>
   </si>
 </sst>
 </file>
@@ -963,7 +966,7 @@
   <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1079,8 +1082,8 @@
         <v>109</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="2">
-        <v>38549281</v>
+      <c r="F6" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G6" s="14">
         <v>35074</v>
